--- a/Problems 1.xlsx
+++ b/Problems 1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="220">
   <si>
     <t xml:space="preserve">Пусть T1 - множество чисел в римских цифрах, а T2 - множество чисел в арабских цифрах. A - отношение  над множествами T1 и T2.</t>
   </si>
@@ -271,6 +271,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">-не соответствует ничему </t>
     </r>
@@ -281,6 +282,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(</t>
     </r>
@@ -290,6 +292,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">буква г</t>
     </r>
@@ -300,6 +303,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
@@ -731,7 +735,7 @@
     <numFmt numFmtId="168" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="169" formatCode="d/m;@"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -801,6 +805,7 @@
       <color rgb="FFC9211E"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -823,6 +828,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -830,6 +836,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -838,13 +845,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFC9211E"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -902,7 +902,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -999,11 +999,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1012,10 +1008,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1039,18 +1031,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1059,11 +1039,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1071,7 +1047,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1324,10 +1300,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:AH233"/>
+  <dimension ref="A2:AH240"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A184" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K209" activeCellId="0" sqref="K209"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A169" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q201" activeCellId="0" sqref="Q201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1341,7 +1317,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="2.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="13.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="15.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="32.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="32.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="24.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="15.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="13.21"/>
@@ -1364,7 +1340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1667,7 +1643,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="8"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1890,7 +1866,7 @@
       <c r="AC29" s="14"/>
       <c r="AD29" s="14"/>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H30" s="9" t="s">
         <v>27</v>
       </c>
@@ -1934,7 +1910,7 @@
       <c r="AC30" s="14"/>
       <c r="AD30" s="14"/>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F31" s="1" t="s">
         <v>30</v>
       </c>
@@ -1999,7 +1975,7 @@
       <c r="AC31" s="14"/>
       <c r="AD31" s="14"/>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H32" s="9" t="s">
         <v>37</v>
       </c>
@@ -2043,7 +2019,7 @@
       <c r="AC32" s="14"/>
       <c r="AD32" s="14"/>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H33" s="9" t="s">
         <v>29</v>
       </c>
@@ -2079,7 +2055,7 @@
       <c r="AC33" s="14"/>
       <c r="AD33" s="14"/>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H34" s="9" t="s">
         <v>28</v>
       </c>
@@ -2109,7 +2085,7 @@
       <c r="AC34" s="14"/>
       <c r="AD34" s="14"/>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M35" s="14"/>
       <c r="N35" s="14"/>
       <c r="O35" s="15" t="s">
@@ -2133,7 +2109,7 @@
       <c r="AC35" s="14"/>
       <c r="AD35" s="14"/>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="2" t="s">
         <v>40</v>
       </c>
@@ -2176,7 +2152,7 @@
       <c r="AC37" s="14"/>
       <c r="AD37" s="14"/>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M38" s="14"/>
       <c r="N38" s="15" t="s">
         <v>10</v>
@@ -2206,7 +2182,7 @@
       <c r="AC38" s="14"/>
       <c r="AD38" s="14"/>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="n">
         <v>4</v>
       </c>
@@ -2246,7 +2222,7 @@
       <c r="AC39" s="14"/>
       <c r="AD39" s="14"/>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H40" s="9" t="s">
         <v>10</v>
       </c>
@@ -2285,7 +2261,7 @@
       <c r="AC40" s="14"/>
       <c r="AD40" s="14"/>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F41" s="1" t="s">
         <v>30</v>
       </c>
@@ -2329,7 +2305,7 @@
       <c r="AC41" s="14"/>
       <c r="AD41" s="14"/>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H42" s="9" t="s">
         <v>11</v>
       </c>
@@ -2362,7 +2338,7 @@
       <c r="AC42" s="14"/>
       <c r="AD42" s="14"/>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M43" s="14"/>
       <c r="N43" s="15" t="s">
         <v>11</v>
@@ -2386,7 +2362,7 @@
       <c r="AC43" s="14"/>
       <c r="AD43" s="14"/>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="2" t="s">
         <v>49</v>
       </c>
@@ -2413,7 +2389,7 @@
       <c r="AC44" s="14"/>
       <c r="AD44" s="14"/>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M45" s="14"/>
       <c r="N45" s="15" t="s">
         <v>42</v>
@@ -2437,7 +2413,7 @@
       <c r="AC45" s="14"/>
       <c r="AD45" s="14"/>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="2" t="s">
         <v>50</v>
       </c>
@@ -2512,7 +2488,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H50" s="18" t="s">
         <v>52</v>
       </c>
@@ -2539,7 +2515,7 @@
       </c>
       <c r="R50" s="14"/>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F51" s="1" t="s">
         <v>30</v>
       </c>
@@ -2575,7 +2551,7 @@
       </c>
       <c r="R51" s="14"/>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H52" s="20" t="n">
         <v>45534</v>
       </c>
@@ -2642,7 +2618,7 @@
       <c r="Q56" s="14"/>
       <c r="R56" s="14"/>
     </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H57" s="9" t="n">
         <v>12</v>
       </c>
@@ -2652,13 +2628,12 @@
       <c r="K57" s="9" t="n">
         <v>11</v>
       </c>
-      <c r="N57" s="0"/>
       <c r="O57" s="14"/>
       <c r="P57" s="14"/>
       <c r="Q57" s="14"/>
       <c r="R57" s="14"/>
     </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H58" s="9" t="n">
         <v>56</v>
       </c>
@@ -2671,13 +2646,12 @@
       <c r="M58" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="N58" s="0"/>
       <c r="O58" s="14"/>
       <c r="P58" s="14"/>
       <c r="Q58" s="14"/>
       <c r="R58" s="14"/>
     </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F59" s="1" t="s">
         <v>30</v>
       </c>
@@ -2696,13 +2670,12 @@
       <c r="K59" s="9" t="n">
         <v>87</v>
       </c>
-      <c r="N59" s="0"/>
       <c r="O59" s="14"/>
       <c r="P59" s="14"/>
       <c r="Q59" s="14"/>
       <c r="R59" s="14"/>
     </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H60" s="9" t="n">
         <v>5</v>
       </c>
@@ -2712,7 +2685,6 @@
       <c r="K60" s="9" t="n">
         <v>90</v>
       </c>
-      <c r="N60" s="0"/>
       <c r="O60" s="14"/>
       <c r="P60" s="14"/>
       <c r="Q60" s="14"/>
@@ -2748,7 +2720,7 @@
       <c r="R63" s="14"/>
       <c r="S63" s="14"/>
     </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="n">
         <v>7</v>
       </c>
@@ -2761,7 +2733,7 @@
       </c>
       <c r="S64" s="22"/>
     </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="2" t="s">
         <v>65</v>
       </c>
@@ -2773,7 +2745,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="66" s="14" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J66" s="22" t="s">
         <v>68</v>
       </c>
@@ -2786,7 +2758,7 @@
       <c r="R66" s="22"/>
       <c r="S66" s="22"/>
     </row>
-    <row r="67" s="14" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="14" t="s">
         <v>70</v>
       </c>
@@ -2823,7 +2795,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="68" s="14" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="23"/>
       <c r="J68" s="22"/>
       <c r="K68" s="15" t="s">
@@ -2845,12 +2817,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="69" s="14" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="23"/>
       <c r="R69" s="22"/>
       <c r="S69" s="22"/>
     </row>
-    <row r="70" s="14" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="14" t="s">
         <v>70</v>
       </c>
@@ -2864,7 +2836,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="71" s="14" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="23"/>
       <c r="H71" s="15" t="s">
         <v>71</v>
@@ -2874,7 +2846,7 @@
       </c>
       <c r="J71" s="22"/>
     </row>
-    <row r="72" s="14" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="23"/>
     </row>
     <row r="73" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2905,7 +2877,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I77" s="9" t="n">
         <v>2</v>
       </c>
@@ -3095,8 +3067,8 @@
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I90" s="7"/>
-      <c r="J90" s="25"/>
-      <c r="K90" s="25"/>
+      <c r="J90" s="7"/>
+      <c r="K90" s="7"/>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G91" s="1" t="s">
@@ -3179,8 +3151,8 @@
         <v>101</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H98" s="26" t="s">
+    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H98" s="25" t="s">
         <v>102</v>
       </c>
       <c r="I98" s="18" t="s">
@@ -3199,8 +3171,8 @@
         <v>103</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H99" s="26" t="s">
+    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H99" s="25" t="s">
         <v>104</v>
       </c>
       <c r="I99" s="18" t="s">
@@ -3219,8 +3191,8 @@
         <v>109</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H100" s="26" t="n">
+    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H100" s="25" t="n">
         <v>1</v>
       </c>
       <c r="I100" s="9" t="s">
@@ -3235,15 +3207,15 @@
       <c r="L100" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="M100" s="27" t="n">
+      <c r="M100" s="26" t="n">
         <v>36892</v>
       </c>
-      <c r="O100" s="28" t="s">
+      <c r="O100" s="14" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H101" s="26" t="n">
+    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H101" s="25" t="n">
         <v>2</v>
       </c>
       <c r="I101" s="9" t="s">
@@ -3258,12 +3230,12 @@
       <c r="L101" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="M101" s="27" t="n">
+      <c r="M101" s="26" t="n">
         <v>39815</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H102" s="26" t="n">
+    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H102" s="25" t="n">
         <v>3</v>
       </c>
       <c r="I102" s="9" t="s">
@@ -3278,12 +3250,12 @@
       <c r="L102" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="M102" s="27" t="n">
+      <c r="M102" s="26" t="n">
         <v>43833</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H103" s="26" t="n">
+    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H103" s="25" t="n">
         <v>4</v>
       </c>
       <c r="I103" s="9" t="s">
@@ -3298,12 +3270,12 @@
       <c r="L103" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="M103" s="27" t="n">
+      <c r="M103" s="26" t="n">
         <v>36892</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H104" s="26" t="n">
+    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H104" s="25" t="n">
         <v>5</v>
       </c>
       <c r="I104" s="9" t="s">
@@ -3318,7 +3290,7 @@
       <c r="L104" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="M104" s="27" t="n">
+      <c r="M104" s="26" t="n">
         <v>42374</v>
       </c>
     </row>
@@ -3472,8 +3444,8 @@
         <v>132</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F118" s="29" t="s">
+    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F118" s="27" t="s">
         <v>87</v>
       </c>
       <c r="H118" s="18" t="s">
@@ -3485,7 +3457,7 @@
       <c r="J118" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="K118" s="30" t="s">
+      <c r="K118" s="28" t="s">
         <v>143</v>
       </c>
       <c r="M118" s="18" t="s">
@@ -3508,7 +3480,7 @@
       <c r="J119" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="K119" s="31"/>
+      <c r="K119" s="29"/>
       <c r="M119" s="18" t="s">
         <v>128</v>
       </c>
@@ -3701,7 +3673,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H131" s="9" t="s">
         <v>140</v>
       </c>
@@ -3714,7 +3686,7 @@
       <c r="K131" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="L131" s="28" t="s">
+      <c r="L131" s="14" t="s">
         <v>145</v>
       </c>
     </row>
@@ -3733,7 +3705,7 @@
       </c>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F134" s="32" t="s">
+      <c r="F134" s="30" t="s">
         <v>99</v>
       </c>
       <c r="H134" s="18" t="s">
@@ -3814,7 +3786,7 @@
       <c r="J137" s="9" t="n">
         <v>302</v>
       </c>
-      <c r="K137" s="33" t="s">
+      <c r="K137" s="31" t="s">
         <v>146</v>
       </c>
       <c r="M137" s="9" t="s">
@@ -3991,7 +3963,7 @@
       <c r="K147" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="L147" s="28" t="s">
+      <c r="L147" s="14" t="s">
         <v>148</v>
       </c>
     </row>
@@ -4022,25 +3994,25 @@
         <v>150</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H153" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="J153" s="34"/>
-      <c r="K153" s="35" t="s">
+      <c r="J153" s="14"/>
+      <c r="K153" s="19" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H154" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="J154" s="34"/>
-      <c r="K154" s="36" t="s">
+      <c r="J154" s="14"/>
+      <c r="K154" s="15" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F155" s="1" t="s">
         <v>154</v>
       </c>
@@ -4050,25 +4022,25 @@
       <c r="H155" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="J155" s="34"/>
-      <c r="K155" s="36" t="s">
+      <c r="J155" s="14"/>
+      <c r="K155" s="15" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H156" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="J156" s="34" t="s">
+      <c r="J156" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="K156" s="36" t="s">
+      <c r="K156" s="15" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J157" s="34"/>
-      <c r="K157" s="36" t="s">
+    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J157" s="14"/>
+      <c r="K157" s="15" t="s">
         <v>160</v>
       </c>
     </row>
@@ -4270,7 +4242,7 @@
       <c r="R165" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="S165" s="37" t="n">
+      <c r="S165" s="32" t="n">
         <v>45627</v>
       </c>
     </row>
@@ -4287,7 +4259,7 @@
       <c r="R166" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="S166" s="37" t="n">
+      <c r="S166" s="32" t="n">
         <v>45047</v>
       </c>
     </row>
@@ -4313,7 +4285,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H169" s="9" t="s">
         <v>184</v>
       </c>
@@ -4326,34 +4298,34 @@
       <c r="L169" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="M169" s="28"/>
-      <c r="N169" s="28"/>
-      <c r="O169" s="28"/>
-      <c r="P169" s="28"/>
+      <c r="M169" s="14"/>
+      <c r="N169" s="14"/>
+      <c r="O169" s="14"/>
+      <c r="P169" s="14"/>
       <c r="R169" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="S169" s="28"/>
-      <c r="T169" s="28"/>
-      <c r="U169" s="28"/>
-      <c r="V169" s="28"/>
+      <c r="S169" s="14"/>
+      <c r="T169" s="14"/>
+      <c r="U169" s="14"/>
+      <c r="V169" s="14"/>
       <c r="X169" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="Y169" s="28"/>
-      <c r="Z169" s="28"/>
-      <c r="AA169" s="28"/>
-      <c r="AB169" s="28"/>
-      <c r="AC169" s="28"/>
+      <c r="Y169" s="14"/>
+      <c r="Z169" s="14"/>
+      <c r="AA169" s="14"/>
+      <c r="AB169" s="14"/>
+      <c r="AC169" s="14"/>
       <c r="AD169" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="AE169" s="28"/>
-      <c r="AF169" s="28"/>
-      <c r="AG169" s="28"/>
-      <c r="AH169" s="28"/>
-    </row>
-    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE169" s="14"/>
+      <c r="AF169" s="14"/>
+      <c r="AG169" s="14"/>
+      <c r="AH169" s="14"/>
+    </row>
+    <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L170" s="19" t="s">
         <v>162</v>
       </c>
@@ -4399,7 +4371,7 @@
       <c r="AB170" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="AC170" s="28"/>
+      <c r="AC170" s="14"/>
       <c r="AD170" s="19" t="s">
         <v>164</v>
       </c>
@@ -4416,7 +4388,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B171" s="2" t="s">
         <v>187</v>
       </c>
@@ -4465,7 +4437,7 @@
       <c r="AB171" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="AC171" s="28"/>
+      <c r="AC171" s="14"/>
       <c r="AD171" s="15" t="n">
         <v>1</v>
       </c>
@@ -4478,11 +4450,11 @@
       <c r="AG171" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="AH171" s="38" t="n">
+      <c r="AH171" s="33" t="n">
         <v>45627</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L172" s="15" t="s">
         <v>56</v>
       </c>
@@ -4528,7 +4500,7 @@
       <c r="AB172" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="AC172" s="28"/>
+      <c r="AC172" s="14"/>
       <c r="AD172" s="15" t="n">
         <v>2</v>
       </c>
@@ -4541,11 +4513,11 @@
       <c r="AG172" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="AH172" s="38" t="n">
+      <c r="AH172" s="33" t="n">
         <v>45047</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C173" s="1" t="s">
         <v>80</v>
       </c>
@@ -4597,7 +4569,7 @@
       <c r="AB173" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="AC173" s="28"/>
+      <c r="AC173" s="14"/>
       <c r="AD173" s="15" t="n">
         <v>1</v>
       </c>
@@ -4610,11 +4582,11 @@
       <c r="AG173" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="AH173" s="38" t="n">
+      <c r="AH173" s="33" t="n">
         <v>45047</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C174" s="1" t="s">
         <v>87</v>
       </c>
@@ -4666,7 +4638,7 @@
       <c r="AB174" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="AC174" s="28"/>
+      <c r="AC174" s="14"/>
       <c r="AD174" s="15" t="n">
         <v>2</v>
       </c>
@@ -4679,11 +4651,11 @@
       <c r="AG174" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="AH174" s="38" t="n">
+      <c r="AH174" s="33" t="n">
         <v>45627</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C175" s="1" t="s">
         <v>92</v>
       </c>
@@ -4735,14 +4707,14 @@
       <c r="AB175" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="AC175" s="28"/>
-      <c r="AD175" s="28"/>
-      <c r="AE175" s="28"/>
-      <c r="AF175" s="28"/>
-      <c r="AG175" s="28"/>
-      <c r="AH175" s="28"/>
-    </row>
-    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AC175" s="14"/>
+      <c r="AD175" s="14"/>
+      <c r="AE175" s="14"/>
+      <c r="AF175" s="14"/>
+      <c r="AG175" s="14"/>
+      <c r="AH175" s="14"/>
+    </row>
+    <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C176" s="1" t="s">
         <v>99</v>
       </c>
@@ -4794,14 +4766,14 @@
       <c r="AB176" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="AC176" s="28"/>
-      <c r="AD176" s="28"/>
-      <c r="AE176" s="28"/>
-      <c r="AF176" s="28"/>
-      <c r="AG176" s="28"/>
-      <c r="AH176" s="28"/>
-    </row>
-    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AC176" s="14"/>
+      <c r="AD176" s="14"/>
+      <c r="AE176" s="14"/>
+      <c r="AF176" s="14"/>
+      <c r="AG176" s="14"/>
+      <c r="AH176" s="14"/>
+    </row>
+    <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L177" s="15" t="s">
         <v>186</v>
       </c>
@@ -4832,14 +4804,14 @@
       <c r="AB177" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="AC177" s="28"/>
-      <c r="AD177" s="28"/>
-      <c r="AE177" s="28"/>
-      <c r="AF177" s="28"/>
-      <c r="AG177" s="28"/>
-      <c r="AH177" s="28"/>
-    </row>
-    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AC177" s="14"/>
+      <c r="AD177" s="14"/>
+      <c r="AE177" s="14"/>
+      <c r="AF177" s="14"/>
+      <c r="AG177" s="14"/>
+      <c r="AH177" s="14"/>
+    </row>
+    <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="n">
         <v>13</v>
       </c>
@@ -4873,17 +4845,17 @@
       <c r="AA178" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="AB178" s="39" t="s">
+      <c r="AB178" s="34" t="s">
         <v>177</v>
       </c>
-      <c r="AC178" s="28"/>
-      <c r="AD178" s="28"/>
-      <c r="AE178" s="28"/>
-      <c r="AF178" s="28"/>
-      <c r="AG178" s="28"/>
-      <c r="AH178" s="28"/>
-    </row>
-    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AC178" s="14"/>
+      <c r="AD178" s="14"/>
+      <c r="AE178" s="14"/>
+      <c r="AF178" s="14"/>
+      <c r="AG178" s="14"/>
+      <c r="AH178" s="14"/>
+    </row>
+    <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B179" s="2" t="s">
         <v>193</v>
       </c>
@@ -4914,17 +4886,17 @@
       <c r="AA179" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="AB179" s="39" t="s">
+      <c r="AB179" s="34" t="s">
         <v>177</v>
       </c>
-      <c r="AC179" s="28"/>
-      <c r="AD179" s="28"/>
-      <c r="AE179" s="28"/>
-      <c r="AF179" s="28"/>
-      <c r="AG179" s="28"/>
-      <c r="AH179" s="28"/>
-    </row>
-    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AC179" s="14"/>
+      <c r="AD179" s="14"/>
+      <c r="AE179" s="14"/>
+      <c r="AF179" s="14"/>
+      <c r="AG179" s="14"/>
+      <c r="AH179" s="14"/>
+    </row>
+    <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L180" s="15" t="s">
         <v>184</v>
       </c>
@@ -4952,17 +4924,17 @@
       <c r="AA180" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="AB180" s="39" t="s">
+      <c r="AB180" s="34" t="s">
         <v>177</v>
       </c>
-      <c r="AC180" s="28"/>
-      <c r="AD180" s="28"/>
-      <c r="AE180" s="28"/>
-      <c r="AF180" s="28"/>
-      <c r="AG180" s="28"/>
-      <c r="AH180" s="28"/>
-    </row>
-    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AC180" s="14"/>
+      <c r="AD180" s="14"/>
+      <c r="AE180" s="14"/>
+      <c r="AF180" s="14"/>
+      <c r="AG180" s="14"/>
+      <c r="AH180" s="14"/>
+    </row>
+    <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B181" s="2" t="s">
         <v>194</v>
       </c>
@@ -4978,17 +4950,17 @@
       <c r="AA181" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="AB181" s="39" t="s">
+      <c r="AB181" s="34" t="s">
         <v>177</v>
       </c>
-      <c r="AC181" s="28"/>
-      <c r="AD181" s="28"/>
-      <c r="AE181" s="28"/>
-      <c r="AF181" s="28"/>
-      <c r="AG181" s="28"/>
-      <c r="AH181" s="28"/>
-    </row>
-    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AC181" s="14"/>
+      <c r="AD181" s="14"/>
+      <c r="AE181" s="14"/>
+      <c r="AF181" s="14"/>
+      <c r="AG181" s="14"/>
+      <c r="AH181" s="14"/>
+    </row>
+    <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J182" s="15" t="s">
         <v>195</v>
       </c>
@@ -5013,17 +4985,17 @@
       <c r="AA182" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="AB182" s="39" t="s">
+      <c r="AB182" s="34" t="s">
         <v>177</v>
       </c>
-      <c r="AC182" s="28"/>
-      <c r="AD182" s="28"/>
-      <c r="AE182" s="28"/>
-      <c r="AF182" s="28"/>
-      <c r="AG182" s="28"/>
-      <c r="AH182" s="28"/>
-    </row>
-    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AC182" s="14"/>
+      <c r="AD182" s="14"/>
+      <c r="AE182" s="14"/>
+      <c r="AF182" s="14"/>
+      <c r="AG182" s="14"/>
+      <c r="AH182" s="14"/>
+    </row>
+    <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E183" s="1" t="s">
         <v>80</v>
       </c>
@@ -5043,7 +5015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E184" s="1" t="s">
         <v>87</v>
       </c>
@@ -5063,7 +5035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J185" s="15" t="n">
         <v>1</v>
       </c>
@@ -5077,7 +5049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J186" s="15" t="n">
         <v>1</v>
       </c>
@@ -5091,483 +5063,384 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K187" s="0"/>
+    </row>
+    <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B188" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="J188" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="K188" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="L188" s="19" t="s">
-        <v>164</v>
-      </c>
+      <c r="K188" s="0"/>
       <c r="N188" s="23" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B189" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="J189" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="K189" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="L189" s="15" t="n">
-        <v>2</v>
+      <c r="J189" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="K189" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="L189" s="19" t="s">
+        <v>164</v>
       </c>
       <c r="N189" s="23" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B190" s="2" t="s">
         <v>205</v>
       </c>
+      <c r="J190" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="K190" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="L190" s="15" t="n">
+        <v>2</v>
+      </c>
       <c r="N190" s="23" t="s">
         <v>206</v>
       </c>
     </row>
+    <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J191" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="K191" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="L191" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" s="23"/>
+    </row>
     <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B192" s="2" t="s">
+      <c r="J192" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="K192" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="L192" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N192" s="23"/>
+    </row>
+    <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J193" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="K193" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="L193" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" s="23"/>
+    </row>
+    <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J194" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="K194" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="L194" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N194" s="23"/>
+    </row>
+    <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J195" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="K195" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="L195" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N195" s="23"/>
+    </row>
+    <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N196" s="23"/>
+    </row>
+    <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N197" s="23"/>
+    </row>
+    <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B199" s="2" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="1" t="n">
+    <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B194" s="2" t="s">
+      <c r="B201" s="2" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B196" s="0"/>
-      <c r="E196" s="0"/>
-      <c r="F196" s="0"/>
-    </row>
-    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B197" s="14" t="s">
+    <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B203" s="1"/>
+    </row>
+    <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B204" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C197" s="14"/>
-      <c r="D197" s="14"/>
-      <c r="E197" s="0"/>
-      <c r="F197" s="28"/>
-      <c r="G197" s="14"/>
-      <c r="I197" s="14" t="s">
+      <c r="C204" s="14"/>
+      <c r="D204" s="14"/>
+      <c r="F204" s="14"/>
+      <c r="G204" s="14"/>
+      <c r="I204" s="14" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B198" s="14" t="s">
+    <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B205" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="C198" s="14"/>
-      <c r="D198" s="14"/>
-      <c r="E198" s="0"/>
-      <c r="F198" s="28"/>
-      <c r="G198" s="14"/>
-      <c r="I198" s="14" t="s">
+      <c r="C205" s="14"/>
+      <c r="D205" s="14"/>
+      <c r="F205" s="14"/>
+      <c r="G205" s="14"/>
+      <c r="I205" s="14" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B199" s="40" t="s">
+    <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B206" s="17" t="s">
         <v>211</v>
       </c>
-      <c r="C199" s="14"/>
-      <c r="D199" s="14"/>
-      <c r="E199" s="0"/>
-      <c r="F199" s="28"/>
-      <c r="G199" s="14"/>
-      <c r="I199" s="28"/>
-    </row>
-    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B200" s="28"/>
-      <c r="C200" s="14"/>
-      <c r="D200" s="14"/>
-      <c r="E200" s="28"/>
-      <c r="F200" s="28"/>
-      <c r="G200" s="14"/>
-    </row>
-    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B201" s="14" t="s">
+      <c r="C206" s="14"/>
+      <c r="D206" s="14"/>
+      <c r="F206" s="14"/>
+      <c r="G206" s="14"/>
+      <c r="I206" s="14"/>
+    </row>
+    <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B207" s="14"/>
+      <c r="C207" s="14"/>
+      <c r="D207" s="14"/>
+      <c r="E207" s="14"/>
+      <c r="F207" s="14"/>
+      <c r="G207" s="14"/>
+    </row>
+    <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B208" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="C201" s="14"/>
-      <c r="D201" s="14"/>
-      <c r="E201" s="28"/>
-      <c r="F201" s="28"/>
-      <c r="G201" s="14"/>
-    </row>
-    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B202" s="14" t="s">
+      <c r="C208" s="14"/>
+      <c r="D208" s="14"/>
+      <c r="E208" s="14"/>
+      <c r="F208" s="14"/>
+      <c r="G208" s="14"/>
+    </row>
+    <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B209" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="C202" s="14"/>
-      <c r="D202" s="14"/>
-      <c r="E202" s="28"/>
-      <c r="F202" s="28"/>
-      <c r="G202" s="14"/>
-    </row>
-    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B203" s="40" t="s">
+      <c r="C209" s="14"/>
+      <c r="D209" s="14"/>
+      <c r="E209" s="14"/>
+      <c r="F209" s="14"/>
+      <c r="G209" s="14"/>
+    </row>
+    <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B210" s="17" t="s">
         <v>211</v>
       </c>
-      <c r="C203" s="14"/>
-      <c r="D203" s="14"/>
-      <c r="E203" s="28"/>
-      <c r="F203" s="28"/>
-      <c r="G203" s="14"/>
-    </row>
-    <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="1" t="n">
+      <c r="C210" s="14"/>
+      <c r="D210" s="14"/>
+      <c r="E210" s="14"/>
+      <c r="F210" s="14"/>
+      <c r="G210" s="14"/>
+    </row>
+    <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B207" s="2" t="s">
+      <c r="B214" s="2" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B209" s="40" t="s">
+    <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B216" s="17" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="1" t="n">
+    <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B211" s="2" t="s">
+      <c r="B218" s="2" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B213" s="41" t="s">
+    <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B220" s="35" t="s">
         <v>216</v>
       </c>
-      <c r="C213" s="14" t="s">
+      <c r="C220" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="D213" s="14"/>
-      <c r="E213" s="28"/>
-      <c r="F213" s="28"/>
-    </row>
-    <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B214" s="14" t="s">
+      <c r="D220" s="14"/>
+      <c r="E220" s="14"/>
+      <c r="F220" s="14"/>
+    </row>
+    <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B221" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="C214" s="14"/>
-      <c r="D214" s="14"/>
-      <c r="E214" s="0"/>
-      <c r="F214" s="28"/>
-      <c r="H214" s="14" t="s">
+      <c r="C221" s="14"/>
+      <c r="D221" s="14"/>
+      <c r="F221" s="14"/>
+      <c r="H221" s="14" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B215" s="41" t="s">
+    <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B222" s="35" t="s">
         <v>216</v>
       </c>
-      <c r="C215" s="14" t="s">
+      <c r="C222" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="D215" s="14"/>
-      <c r="E215" s="28"/>
-      <c r="F215" s="28"/>
-    </row>
-    <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="1" t="n">
+      <c r="D222" s="14"/>
+      <c r="E222" s="14"/>
+      <c r="F222" s="14"/>
+    </row>
+    <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B216" s="2" t="s">
+      <c r="B223" s="2" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B218" s="14" t="s">
+    <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B225" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="C218" s="14"/>
-      <c r="D218" s="14"/>
-      <c r="E218" s="14"/>
-      <c r="F218" s="28"/>
-    </row>
-    <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="1" t="n">
+      <c r="C225" s="14"/>
+      <c r="D225" s="14"/>
+      <c r="E225" s="14"/>
+      <c r="F225" s="14"/>
+    </row>
+    <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B220" s="2" t="s">
+      <c r="B227" s="2" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H222" s="19" t="s">
+    <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H229" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="I222" s="19" t="s">
+      <c r="I229" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="J222" s="19" t="s">
+      <c r="J229" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="K222" s="19" t="s">
+      <c r="K229" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="L222" s="19" t="s">
+      <c r="L229" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="M222" s="19" t="s">
+      <c r="M229" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="N222" s="19" t="s">
+      <c r="N229" s="19" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H223" s="15" t="s">
+    <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H230" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="I223" s="15" t="n">
+      <c r="I230" s="15" t="n">
         <v>15000</v>
       </c>
-      <c r="J223" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="K223" s="15" t="s">
+      <c r="J230" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K230" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="L223" s="15" t="s">
+      <c r="L230" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="M223" s="15" t="s">
+      <c r="M230" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="N223" s="38" t="s">
+      <c r="N230" s="33" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H224" s="15" t="s">
+    <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H231" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="I224" s="15" t="n">
+      <c r="I231" s="15" t="n">
         <v>30000</v>
       </c>
-      <c r="J224" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="K224" s="15" t="s">
+      <c r="J231" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K231" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="L224" s="15" t="s">
+      <c r="L231" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="M224" s="15" t="s">
+      <c r="M231" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="N224" s="38" t="n">
+      <c r="N231" s="33" t="n">
         <v>45047</v>
       </c>
     </row>
-    <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H225" s="15" t="s">
+    <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H232" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="I225" s="15" t="n">
+      <c r="I232" s="15" t="n">
         <v>60000</v>
       </c>
-      <c r="J225" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="K225" s="15" t="s">
+      <c r="J232" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K232" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="L225" s="15" t="s">
+      <c r="L232" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="M225" s="15" t="s">
+      <c r="M232" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="N225" s="38" t="s">
+      <c r="N232" s="33" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H226" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="I226" s="15" t="n">
-        <v>17000</v>
-      </c>
-      <c r="J226" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="K226" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="L226" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="M226" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="N226" s="42" t="n">
-        <v>45627</v>
-      </c>
-    </row>
-    <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H227" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="I227" s="15" t="n">
-        <v>23000</v>
-      </c>
-      <c r="J227" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="K227" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="L227" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="M227" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="N227" s="38" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H228" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="I228" s="15" t="n">
-        <v>25000</v>
-      </c>
-      <c r="J228" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="K228" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="L228" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="M228" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="N228" s="38" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H229" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="I229" s="15" t="n">
-        <v>32000</v>
-      </c>
-      <c r="J229" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="K229" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="L229" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="M229" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="N229" s="38" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H230" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="I230" s="15" t="n">
-        <v>16000</v>
-      </c>
-      <c r="J230" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="K230" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="L230" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="M230" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="N230" s="42" t="n">
-        <v>45627</v>
-      </c>
-    </row>
-    <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H231" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="I231" s="15" t="n">
-        <v>20000</v>
-      </c>
-      <c r="J231" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="K231" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="L231" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="M231" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="N231" s="42" t="n">
-        <v>45627</v>
-      </c>
-    </row>
-    <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H232" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="I232" s="15" t="n">
-        <v>40000</v>
-      </c>
-      <c r="J232" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="K232" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="L232" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="M232" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="N232" s="38" t="n">
-        <v>45047</v>
-      </c>
-    </row>
-    <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H233" s="15" t="s">
         <v>174</v>
       </c>
@@ -5584,9 +5457,170 @@
         <v>172</v>
       </c>
       <c r="M233" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="N233" s="36" t="n">
+        <v>45627</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H234" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="I234" s="15" t="n">
+        <v>23000</v>
+      </c>
+      <c r="J234" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K234" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="L234" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="M234" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="N234" s="33" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H235" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="I235" s="15" t="n">
+        <v>25000</v>
+      </c>
+      <c r="J235" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="K235" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="L235" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="M235" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="N235" s="33" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H236" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="I236" s="15" t="n">
+        <v>32000</v>
+      </c>
+      <c r="J236" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="K236" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="L236" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="M236" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="N236" s="33" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H237" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="I237" s="15" t="n">
+        <v>16000</v>
+      </c>
+      <c r="J237" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="K237" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="L237" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="M237" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="N237" s="36" t="n">
+        <v>45627</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H238" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="I238" s="15" t="n">
+        <v>20000</v>
+      </c>
+      <c r="J238" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="K238" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="L238" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="M238" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="N238" s="36" t="n">
+        <v>45627</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H239" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="I239" s="15" t="n">
+        <v>40000</v>
+      </c>
+      <c r="J239" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="K239" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="L239" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="M239" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="N233" s="38" t="n">
+      <c r="N239" s="33" t="n">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H240" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="I240" s="15" t="n">
+        <v>17000</v>
+      </c>
+      <c r="J240" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K240" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="L240" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="M240" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="N240" s="33" t="n">
         <v>45047</v>
       </c>
     </row>
